--- a/cajas-diarias/totales-2023-09-08.xlsx
+++ b/cajas-diarias/totales-2023-09-08.xlsx
@@ -397,13 +397,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>totalVenta</v>
+      </c>
+      <c r="B1" t="str">
+        <v>tipo</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>17000</v>
+      </c>
+      <c r="B2" t="str">
+        <v>DEBITO</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>